--- a/Parabank/Input data/InputData.xlsx
+++ b/Parabank/Input data/InputData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>first name</t>
   </si>
@@ -66,15 +66,9 @@
     <t>ssn</t>
   </si>
   <si>
-    <t>332-25-45617</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
-    <t>Rahul@123</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -97,6 +91,18 @@
   </si>
   <si>
     <t>https://parabank.parasoft.com/parabank/index.htm</t>
+  </si>
+  <si>
+    <t>"222143"</t>
+  </si>
+  <si>
+    <t>"9876543210"</t>
+  </si>
+  <si>
+    <t>"332-25-45617"</t>
+  </si>
+  <si>
+    <t>Rahul@347</t>
   </si>
 </sst>
 </file>
@@ -156,11 +162,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -446,7 +452,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,14 +462,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -509,16 +515,16 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>222143</v>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>9876543210</v>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,47 +532,47 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
